--- a/output/EventSummary/practitionerrole-ident-1.xlsx
+++ b/output/EventSummary/practitionerrole-ident-1.xlsx
@@ -680,7 +680,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-npio-0:NPIO length is exactly 33 characters {value.length() = 33}</t>
+inv-npio-0:NPIO length is exactly 33 characters {value.length() = 33}inv-npio-1:NPIO value shall start with '800361', then 10 digits, then '@', then '800362' and ends with 10 digits {value.matches('^(800361)([0-9]{10})(@)(800362)([0-9]{10})$')}</t>
   </si>
   <si>
     <t>Coded identifier type for national provider identifier at organisation</t>

--- a/output/EventSummary/practitionerrole-ident-1.xlsx
+++ b/output/EventSummary/practitionerrole-ident-1.xlsx
@@ -680,7 +680,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-npio-0:NPIO length is exactly 33 characters {value.length() = 33}inv-npio-1:NPIO value shall start with '800361', then 10 digits, then '@', then '800362' and ends with 10 digits {value.matches('^(800361)([0-9]{10})(@)(800362)([0-9]{10})$')}</t>
+inv-npio-0:NPIO length is exactly 33 characters {value.length() = 33}</t>
   </si>
   <si>
     <t>Coded identifier type for national provider identifier at organisation</t>

--- a/output/EventSummary/practitionerrole-ident-1.xlsx
+++ b/output/EventSummary/practitionerrole-ident-1.xlsx
@@ -146,14 +146,14 @@
     <t>*</t>
   </si>
   <si>
-    <t>A practitioner in a healthcare role in an Australian healthcare context</t>
+    <t>A person with formal responsibility in a role providing one or more services</t>
   </si>
   <si>
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-prarol-01:At least one practitioner role identifier shall at least have a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-prarol-02:If present, a practitioner shall at least have a reference, an identifier or a display {practitioner.exists() implies practitioner.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-03:If present, an organization shall at least have a reference, an identifier or a display {organization.exists() implies organization.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-04:If present, a location shall at least have a reference, an identifier or a display {location.exists() implies location.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-05:If present, a healthcare service shall at least have a reference, an identifier or a display {healthcareService.exists() implies healthcareService.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-prarol-01:At least one practitioner role identifier shall at least have a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-prarol-02:If present, a practitioner shall at least have a reference, an identifier or a display {practitioner.exists() implies practitioner.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-03:If present, an organization shall at least have a reference, an identifier or a display {organization.exists() implies organization.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -903,7 +903,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitioner-dh-base-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -919,7 +919,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-dh-base-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -8285,7 +8285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>305</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -8394,7 +8394,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>312</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
